--- a/biology/Botanique/Adiantum/Adiantum.xlsx
+++ b/biology/Botanique/Adiantum/Adiantum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adiantum est un genre d'environ 200 espèces de fougères de la famille des Pteridaceae.
-Le nom de ce genre vient du grec et signifie « non humide », ce qui fait allusion à la capacité des frondes de laisser couler l'eau sans être mouillées[1].
+Le nom de ce genre vient du grec et signifie « non humide », ce qui fait allusion à la capacité des frondes de laisser couler l'eau sans être mouillées.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces fougères ont une apparence caractéristique, avec des stipes et des rachis sombres, souvent noirs et le tissu de feuille d'un vert brillant souvent délicatement découpé. Les sores sont portés près des bords et recouverts par les replis de tissu de feuille qui ressemblent à de l'indusie. Le dimorphisme entre les frondes stériles et les frondes fertiles est généralement peu marqué.
 Elles préfèrent généralement les emplacements riches en humus, moites, bien égouttés, allant des sols bas alluviaux aux murs de roche verticaux. Beaucoup d'espèces sont surtout connues pour pousser sur les parois de roche autour des cascades et des zones où suinte l'eau.
@@ -554,7 +568,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adiantum abscissum
